--- a/Synthèse-Experiences/ExperimentsMAJ19juillet15h.xlsx
+++ b/Synthèse-Experiences/ExperimentsMAJ19juillet15h.xlsx
@@ -1401,33 +1401,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1491,6 +1464,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -4285,10 +4285,10 @@
   <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="76" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4331,73 +4331,73 @@
       <c r="J1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="104"/>
+      <c r="L1" s="126"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="31"/>
-      <c r="Q1" s="106" t="s">
+      <c r="Q1" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="107" t="s">
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="108" t="s">
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
       <c r="AD1" s="43" t="s">
         <v>68</v>
       </c>
       <c r="AE1" s="43"/>
     </row>
     <row r="2" spans="1:34" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
       <c r="P2" s="31"/>
-      <c r="Q2" s="110" t="s">
+      <c r="Q2" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110" t="s">
+      <c r="R2" s="132"/>
+      <c r="S2" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="110"/>
-      <c r="U2" s="111" t="s">
+      <c r="T2" s="132"/>
+      <c r="U2" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111" t="s">
+      <c r="V2" s="133"/>
+      <c r="W2" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="112" t="s">
+      <c r="X2" s="133"/>
+      <c r="Y2" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112" t="s">
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="105" t="s">
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
     </row>
     <row r="3" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90" t="s">
@@ -4583,9 +4583,9 @@
       </c>
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
-      <c r="AF4" s="113"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="115"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="106"/>
     </row>
     <row r="5" spans="1:34" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="40">
@@ -4667,11 +4667,11 @@
       <c r="AC5" s="18"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="18"/>
-      <c r="AF5" s="116" t="s">
+      <c r="AF5" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="115"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="106"/>
     </row>
     <row r="6" spans="1:34" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
@@ -4752,11 +4752,11 @@
       <c r="AC6" s="15"/>
       <c r="AD6" s="15"/>
       <c r="AE6" s="15"/>
-      <c r="AF6" s="113" t="s">
+      <c r="AF6" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="AG6" s="114"/>
-      <c r="AH6" s="115"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="106"/>
     </row>
     <row r="7" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="40">
@@ -4838,11 +4838,11 @@
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
-      <c r="AF7" s="116" t="s">
+      <c r="AF7" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="115"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="106"/>
     </row>
     <row r="8" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
@@ -4926,9 +4926,9 @@
       </c>
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="115"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="106"/>
     </row>
     <row r="9" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
@@ -5014,11 +5014,11 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
       <c r="AE9" s="15"/>
-      <c r="AF9" s="113" t="s">
+      <c r="AF9" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="AG9" s="114"/>
-      <c r="AH9" s="115"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="106"/>
     </row>
     <row r="10" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
@@ -5104,11 +5104,11 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
-      <c r="AF10" s="113" t="s">
+      <c r="AF10" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="115"/>
+      <c r="AG10" s="105"/>
+      <c r="AH10" s="106"/>
     </row>
     <row r="11" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
@@ -5196,11 +5196,11 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="113" t="s">
+      <c r="AF11" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="AG11" s="114"/>
-      <c r="AH11" s="115"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="106"/>
     </row>
     <row r="12" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
@@ -5292,9 +5292,9 @@
       <c r="AE12" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="114"/>
-      <c r="AH12" s="115"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="106"/>
     </row>
     <row r="13" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="40">
@@ -5378,11 +5378,11 @@
       <c r="AC13" s="36"/>
       <c r="AD13" s="36"/>
       <c r="AE13" s="36"/>
-      <c r="AF13" s="117" t="s">
+      <c r="AF13" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="AG13" s="114"/>
-      <c r="AH13" s="115"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="106"/>
     </row>
     <row r="14" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
@@ -5472,9 +5472,9 @@
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
       <c r="AE14" s="15"/>
-      <c r="AF14" s="113"/>
-      <c r="AG14" s="114"/>
-      <c r="AH14" s="115"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="106"/>
     </row>
     <row r="15" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
@@ -5562,13 +5562,13 @@
         <v>67</v>
       </c>
       <c r="AE15" s="42"/>
-      <c r="AF15" s="118" t="s">
+      <c r="AF15" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="AG15" s="114" t="s">
+      <c r="AG15" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="AH15" s="115">
+      <c r="AH15" s="106">
         <v>12</v>
       </c>
     </row>
@@ -5658,11 +5658,11 @@
         <v>67</v>
       </c>
       <c r="AE16" s="42"/>
-      <c r="AF16" s="113"/>
-      <c r="AG16" s="114" t="s">
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="AH16" s="115" t="s">
+      <c r="AH16" s="106" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5758,13 +5758,13 @@
       <c r="AE17" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="AF17" s="119" t="s">
+      <c r="AF17" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="AG17" s="114" t="s">
+      <c r="AG17" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="AH17" s="115" t="s">
+      <c r="AH17" s="106" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5860,13 +5860,13 @@
       <c r="AE18" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AF18" s="119" t="s">
+      <c r="AF18" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="AG18" s="114" t="s">
+      <c r="AG18" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="AH18" s="115" t="s">
+      <c r="AH18" s="106" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5956,9 +5956,9 @@
       <c r="AC19" s="52"/>
       <c r="AD19" s="52"/>
       <c r="AE19" s="52"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="114"/>
-      <c r="AH19" s="115"/>
+      <c r="AF19" s="111"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="106"/>
     </row>
     <row r="20" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
@@ -6048,11 +6048,11 @@
       <c r="AE20" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="AF20" s="119" t="s">
+      <c r="AF20" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="AG20" s="114"/>
-      <c r="AH20" s="115" t="s">
+      <c r="AG20" s="105"/>
+      <c r="AH20" s="106" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6138,9 +6138,9 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
-      <c r="AF21" s="113"/>
-      <c r="AG21" s="114"/>
-      <c r="AH21" s="115"/>
+      <c r="AF21" s="104"/>
+      <c r="AG21" s="105"/>
+      <c r="AH21" s="106"/>
     </row>
     <row r="22" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
@@ -6224,13 +6224,13 @@
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
-      <c r="AF22" s="113" t="s">
+      <c r="AF22" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="AG22" s="121" t="s">
+      <c r="AG22" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="AH22" s="115"/>
+      <c r="AH22" s="106"/>
     </row>
     <row r="23" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
@@ -6315,9 +6315,9 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="121"/>
-      <c r="AH23" s="115"/>
+      <c r="AF23" s="104"/>
+      <c r="AG23" s="112"/>
+      <c r="AH23" s="106"/>
     </row>
     <row r="24" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
@@ -6402,9 +6402,9 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
-      <c r="AF24" s="113"/>
-      <c r="AG24" s="121"/>
-      <c r="AH24" s="115"/>
+      <c r="AF24" s="104"/>
+      <c r="AG24" s="112"/>
+      <c r="AH24" s="106"/>
     </row>
     <row r="25" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
@@ -6489,11 +6489,11 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="123" t="s">
+      <c r="AF25" s="113"/>
+      <c r="AG25" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="AH25" s="115"/>
+      <c r="AH25" s="106"/>
     </row>
     <row r="26" spans="1:34" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
@@ -6578,11 +6578,11 @@
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
-      <c r="AF26" s="122" t="s">
+      <c r="AF26" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="115"/>
+      <c r="AG26" s="115"/>
+      <c r="AH26" s="106"/>
     </row>
     <row r="27" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
@@ -6669,11 +6669,11 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
-      <c r="AF27" s="125"/>
-      <c r="AG27" s="126" t="s">
+      <c r="AF27" s="116"/>
+      <c r="AG27" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="AH27" s="115"/>
+      <c r="AH27" s="106"/>
     </row>
     <row r="28" spans="1:34" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
@@ -6760,11 +6760,11 @@
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
-      <c r="AF28" s="122" t="s">
+      <c r="AF28" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="AG28" s="127"/>
-      <c r="AH28" s="115" t="s">
+      <c r="AG28" s="118"/>
+      <c r="AH28" s="106" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6851,11 +6851,11 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
-      <c r="AF29" s="125"/>
-      <c r="AG29" s="126" t="s">
+      <c r="AF29" s="116"/>
+      <c r="AG29" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="AH29" s="115"/>
+      <c r="AH29" s="106"/>
     </row>
     <row r="30" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="92">
@@ -6940,9 +6940,9 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
-      <c r="AF30" s="125"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="115" t="s">
+      <c r="AF30" s="116"/>
+      <c r="AG30" s="119"/>
+      <c r="AH30" s="106" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7029,9 +7029,9 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="28"/>
-      <c r="AF31" s="129"/>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="130"/>
+      <c r="AF31" s="120"/>
+      <c r="AG31" s="119"/>
+      <c r="AH31" s="121"/>
     </row>
     <row r="32" spans="1:34" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92">
@@ -7116,9 +7116,9 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="28"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="127"/>
-      <c r="AH32" s="115"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="118"/>
+      <c r="AH32" s="106"/>
     </row>
     <row r="33" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="92">
@@ -7203,11 +7203,11 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="28"/>
-      <c r="AF33" s="129"/>
-      <c r="AG33" s="121" t="s">
+      <c r="AF33" s="120"/>
+      <c r="AG33" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="AH33" s="130" t="s">
+      <c r="AH33" s="121" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7294,11 +7294,11 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="28"/>
-      <c r="AF34" s="129"/>
-      <c r="AG34" s="121" t="s">
+      <c r="AF34" s="120"/>
+      <c r="AG34" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="AH34" s="130" t="s">
+      <c r="AH34" s="121" t="s">
         <v>132</v>
       </c>
     </row>
@@ -7385,9 +7385,9 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="28"/>
-      <c r="AF35" s="129"/>
-      <c r="AG35" s="114"/>
-      <c r="AH35" s="130"/>
+      <c r="AF35" s="120"/>
+      <c r="AG35" s="105"/>
+      <c r="AH35" s="121"/>
     </row>
     <row r="36" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="92">
@@ -7472,9 +7472,9 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="28"/>
-      <c r="AF36" s="131"/>
-      <c r="AG36" s="114"/>
-      <c r="AH36" s="130"/>
+      <c r="AF36" s="122"/>
+      <c r="AG36" s="105"/>
+      <c r="AH36" s="121"/>
     </row>
     <row r="37" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="92">
@@ -7559,9 +7559,9 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="28"/>
-      <c r="AF37" s="131"/>
-      <c r="AG37" s="114"/>
-      <c r="AH37" s="130"/>
+      <c r="AF37" s="122"/>
+      <c r="AG37" s="105"/>
+      <c r="AH37" s="121"/>
     </row>
     <row r="38" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="93">
@@ -7639,9 +7639,9 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="28"/>
-      <c r="AF38" s="131"/>
-      <c r="AG38" s="114"/>
-      <c r="AH38" s="130"/>
+      <c r="AF38" s="122"/>
+      <c r="AG38" s="105"/>
+      <c r="AH38" s="121"/>
     </row>
     <row r="39" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -7719,9 +7719,9 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="28"/>
-      <c r="AF39" s="131"/>
-      <c r="AG39" s="114"/>
-      <c r="AH39" s="130"/>
+      <c r="AF39" s="122"/>
+      <c r="AG39" s="105"/>
+      <c r="AH39" s="121"/>
     </row>
     <row r="40" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="93">
@@ -7799,9 +7799,9 @@
       <c r="AC40" s="15"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="28"/>
-      <c r="AF40" s="113"/>
-      <c r="AG40" s="114"/>
-      <c r="AH40" s="130"/>
+      <c r="AF40" s="104"/>
+      <c r="AG40" s="105"/>
+      <c r="AH40" s="121"/>
     </row>
     <row r="41" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="93">
@@ -7879,9 +7879,9 @@
       <c r="AC41" s="15"/>
       <c r="AD41" s="85"/>
       <c r="AE41" s="85"/>
-      <c r="AF41" s="113"/>
-      <c r="AG41" s="114"/>
-      <c r="AH41" s="130"/>
+      <c r="AF41" s="104"/>
+      <c r="AG41" s="105"/>
+      <c r="AH41" s="121"/>
     </row>
     <row r="42" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="93">
@@ -7959,9 +7959,9 @@
       <c r="AC42" s="15"/>
       <c r="AD42" s="85"/>
       <c r="AE42" s="85"/>
-      <c r="AF42" s="113"/>
-      <c r="AG42" s="114"/>
-      <c r="AH42" s="130"/>
+      <c r="AF42" s="104"/>
+      <c r="AG42" s="105"/>
+      <c r="AH42" s="121"/>
     </row>
     <row r="43" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="93">
@@ -8039,9 +8039,9 @@
       <c r="AC43" s="15"/>
       <c r="AD43" s="85"/>
       <c r="AE43" s="85"/>
-      <c r="AF43" s="113"/>
-      <c r="AG43" s="114"/>
-      <c r="AH43" s="115"/>
+      <c r="AF43" s="104"/>
+      <c r="AG43" s="105"/>
+      <c r="AH43" s="106"/>
     </row>
     <row r="44" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="93">
@@ -8119,9 +8119,9 @@
       <c r="AC44" s="15"/>
       <c r="AD44" s="85"/>
       <c r="AE44" s="85"/>
-      <c r="AF44" s="113"/>
-      <c r="AG44" s="114"/>
-      <c r="AH44" s="115"/>
+      <c r="AF44" s="104"/>
+      <c r="AG44" s="105"/>
+      <c r="AH44" s="106"/>
     </row>
     <row r="45" spans="1:34" s="89" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="93">
@@ -8185,11 +8185,11 @@
       <c r="AC45" s="80"/>
       <c r="AD45" s="88"/>
       <c r="AE45" s="88"/>
-      <c r="AF45" s="132" t="s">
+      <c r="AF45" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="AG45" s="114"/>
-      <c r="AH45" s="115"/>
+      <c r="AG45" s="105"/>
+      <c r="AH45" s="106"/>
     </row>
     <row r="46" spans="1:34" s="89" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="93">
@@ -8253,11 +8253,11 @@
       <c r="AC46" s="80"/>
       <c r="AD46" s="88"/>
       <c r="AE46" s="88"/>
-      <c r="AF46" s="132" t="s">
+      <c r="AF46" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="AG46" s="114"/>
-      <c r="AH46" s="115"/>
+      <c r="AG46" s="105"/>
+      <c r="AH46" s="106"/>
     </row>
     <row r="47" spans="1:34" s="89" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="93">
@@ -8321,11 +8321,11 @@
       <c r="AC47" s="80"/>
       <c r="AD47" s="88"/>
       <c r="AE47" s="88"/>
-      <c r="AF47" s="132" t="s">
+      <c r="AF47" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="AG47" s="114"/>
-      <c r="AH47" s="115"/>
+      <c r="AG47" s="105"/>
+      <c r="AH47" s="106"/>
     </row>
     <row r="48" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="93">
@@ -8403,9 +8403,9 @@
       <c r="AC48" s="15"/>
       <c r="AD48" s="85"/>
       <c r="AE48" s="85"/>
-      <c r="AF48" s="113"/>
-      <c r="AG48" s="114"/>
-      <c r="AH48" s="115"/>
+      <c r="AF48" s="104"/>
+      <c r="AG48" s="105"/>
+      <c r="AH48" s="106"/>
     </row>
     <row r="49" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="93">
@@ -8483,9 +8483,9 @@
       <c r="AC49" s="15"/>
       <c r="AD49" s="85"/>
       <c r="AE49" s="85"/>
-      <c r="AF49" s="113"/>
-      <c r="AG49" s="114"/>
-      <c r="AH49" s="115"/>
+      <c r="AF49" s="104"/>
+      <c r="AG49" s="105"/>
+      <c r="AH49" s="106"/>
     </row>
     <row r="50" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="93">
@@ -8563,9 +8563,9 @@
       <c r="AC50" s="15"/>
       <c r="AD50" s="85"/>
       <c r="AE50" s="85"/>
-      <c r="AF50" s="113"/>
-      <c r="AG50" s="114"/>
-      <c r="AH50" s="115"/>
+      <c r="AF50" s="104"/>
+      <c r="AG50" s="105"/>
+      <c r="AH50" s="106"/>
     </row>
     <row r="51" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="93">
@@ -8643,9 +8643,9 @@
       <c r="AC51" s="15"/>
       <c r="AD51" s="85"/>
       <c r="AE51" s="85"/>
-      <c r="AF51" s="113"/>
-      <c r="AG51" s="114"/>
-      <c r="AH51" s="115"/>
+      <c r="AF51" s="104"/>
+      <c r="AG51" s="105"/>
+      <c r="AH51" s="106"/>
     </row>
     <row r="52" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="93">
@@ -8723,9 +8723,9 @@
       <c r="AC52" s="15"/>
       <c r="AD52" s="85"/>
       <c r="AE52" s="85"/>
-      <c r="AF52" s="113"/>
-      <c r="AG52" s="114"/>
-      <c r="AH52" s="115"/>
+      <c r="AF52" s="104"/>
+      <c r="AG52" s="105"/>
+      <c r="AH52" s="106"/>
     </row>
     <row r="53" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="93">
@@ -8803,9 +8803,9 @@
       <c r="AC53" s="15"/>
       <c r="AD53" s="85"/>
       <c r="AE53" s="85"/>
-      <c r="AF53" s="113"/>
-      <c r="AG53" s="114"/>
-      <c r="AH53" s="115"/>
+      <c r="AF53" s="104"/>
+      <c r="AG53" s="105"/>
+      <c r="AH53" s="106"/>
     </row>
     <row r="54" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="93">
@@ -8883,9 +8883,9 @@
       <c r="AC54" s="15"/>
       <c r="AD54" s="85"/>
       <c r="AE54" s="85"/>
-      <c r="AF54" s="113"/>
-      <c r="AG54" s="114"/>
-      <c r="AH54" s="115"/>
+      <c r="AF54" s="104"/>
+      <c r="AG54" s="105"/>
+      <c r="AH54" s="106"/>
     </row>
     <row r="55" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="93">
@@ -8963,9 +8963,9 @@
       <c r="AC55" s="15"/>
       <c r="AD55" s="85"/>
       <c r="AE55" s="85"/>
-      <c r="AF55" s="113"/>
-      <c r="AG55" s="114"/>
-      <c r="AH55" s="115"/>
+      <c r="AF55" s="104"/>
+      <c r="AG55" s="105"/>
+      <c r="AH55" s="106"/>
     </row>
     <row r="56" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="93">
@@ -9043,9 +9043,9 @@
       <c r="AC56" s="15"/>
       <c r="AD56" s="85"/>
       <c r="AE56" s="85"/>
-      <c r="AF56" s="113"/>
-      <c r="AG56" s="114"/>
-      <c r="AH56" s="115"/>
+      <c r="AF56" s="104"/>
+      <c r="AG56" s="105"/>
+      <c r="AH56" s="106"/>
     </row>
     <row r="57" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="93">
@@ -9123,9 +9123,9 @@
       <c r="AC57" s="15"/>
       <c r="AD57" s="85"/>
       <c r="AE57" s="85"/>
-      <c r="AF57" s="113"/>
-      <c r="AG57" s="114"/>
-      <c r="AH57" s="115"/>
+      <c r="AF57" s="104"/>
+      <c r="AG57" s="105"/>
+      <c r="AH57" s="106"/>
     </row>
     <row r="58" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="93">
@@ -9203,9 +9203,9 @@
       <c r="AC58" s="15"/>
       <c r="AD58" s="85"/>
       <c r="AE58" s="85"/>
-      <c r="AF58" s="113"/>
-      <c r="AG58" s="114"/>
-      <c r="AH58" s="115"/>
+      <c r="AF58" s="104"/>
+      <c r="AG58" s="105"/>
+      <c r="AH58" s="106"/>
     </row>
     <row r="59" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="93">
@@ -9283,9 +9283,9 @@
       <c r="AC59" s="15"/>
       <c r="AD59" s="85"/>
       <c r="AE59" s="85"/>
-      <c r="AF59" s="113"/>
-      <c r="AG59" s="114"/>
-      <c r="AH59" s="115"/>
+      <c r="AF59" s="104"/>
+      <c r="AG59" s="105"/>
+      <c r="AH59" s="106"/>
     </row>
     <row r="60" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="94">
@@ -9363,9 +9363,9 @@
       <c r="AC60" s="15"/>
       <c r="AD60" s="85"/>
       <c r="AE60" s="85"/>
-      <c r="AF60" s="113"/>
-      <c r="AG60" s="133"/>
-      <c r="AH60" s="134"/>
+      <c r="AF60" s="104"/>
+      <c r="AG60" s="124"/>
+      <c r="AH60" s="125"/>
     </row>
     <row r="61" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="29">

--- a/Synthèse-Experiences/ExperimentsMAJ19juillet15h.xlsx
+++ b/Synthèse-Experiences/ExperimentsMAJ19juillet15h.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacData/Users/clemencebriosnefrejaville/Desktop/GitHubAustralie/Synthèse-Experiences/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Resultats" sheetId="1" r:id="rId1"/>
     <sheet name="Interpretations" sheetId="2" r:id="rId2"/>
     <sheet name="Resolution" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="137">
   <si>
     <t>Colonne7</t>
   </si>
@@ -486,9 +481,6 @@
     <t>dose 0,8to1,2</t>
   </si>
   <si>
-    <t>Array dots</t>
-  </si>
-  <si>
     <t>SEM (! upside down- uncoated side)</t>
   </si>
   <si>
@@ -532,6 +524,21 @@
   </si>
   <si>
     <t>31to34 InLens</t>
+  </si>
+  <si>
+    <t>Membrane 4 - direct</t>
+  </si>
+  <si>
+    <t>20μm – 6.5 pA (7)</t>
+  </si>
+  <si>
+    <t>newdose0,8to1,2</t>
+  </si>
+  <si>
+    <t>newdose0,8to1,3</t>
+  </si>
+  <si>
+    <t>array dots</t>
   </si>
 </sst>
 </file>
@@ -4285,46 +4292,46 @@
   <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="76" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="6.296875" style="54" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="69" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="63" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" style="63" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="54" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" style="54" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="35" customWidth="1"/>
+    <col min="13" max="14" width="10.796875" customWidth="1"/>
+    <col min="15" max="15" width="10.796875" style="35" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" customWidth="1"/>
-    <col min="19" max="19" width="11.83203125" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.83203125" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" customWidth="1"/>
-    <col min="23" max="23" width="11.83203125" customWidth="1"/>
-    <col min="24" max="24" width="13.1640625" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" customWidth="1"/>
-    <col min="29" max="29" width="14.1640625" customWidth="1"/>
-    <col min="30" max="30" width="17.33203125" customWidth="1"/>
-    <col min="31" max="31" width="15.1640625" customWidth="1"/>
-    <col min="32" max="32" width="41.83203125" customWidth="1"/>
-    <col min="33" max="33" width="20.1640625" customWidth="1"/>
+    <col min="17" max="17" width="11.796875" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" customWidth="1"/>
+    <col min="19" max="19" width="11.796875" customWidth="1"/>
+    <col min="20" max="20" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.796875" customWidth="1"/>
+    <col min="22" max="22" width="13.19921875" customWidth="1"/>
+    <col min="23" max="23" width="11.796875" customWidth="1"/>
+    <col min="24" max="24" width="13.19921875" customWidth="1"/>
+    <col min="25" max="25" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.296875" customWidth="1"/>
+    <col min="29" max="29" width="14.19921875" customWidth="1"/>
+    <col min="30" max="30" width="17.296875" customWidth="1"/>
+    <col min="31" max="31" width="15.19921875" customWidth="1"/>
+    <col min="32" max="32" width="41.796875" customWidth="1"/>
+    <col min="33" max="33" width="20.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -4362,7 +4369,7 @@
       </c>
       <c r="AE1" s="43"/>
     </row>
-    <row r="2" spans="1:34" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M2" s="131" t="s">
         <v>33</v>
       </c>
@@ -4399,7 +4406,7 @@
       <c r="AD2" s="127"/>
       <c r="AE2" s="127"/>
     </row>
-    <row r="3" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="90" t="s">
         <v>77</v>
       </c>
@@ -4497,13 +4504,13 @@
         <v>7</v>
       </c>
       <c r="AG3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="4" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="91">
         <v>1</v>
       </c>
@@ -4587,7 +4594,7 @@
       <c r="AG4" s="105"/>
       <c r="AH4" s="106"/>
     </row>
-    <row r="5" spans="1:34" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="40">
         <v>2</v>
       </c>
@@ -4673,7 +4680,7 @@
       <c r="AG5" s="105"/>
       <c r="AH5" s="106"/>
     </row>
-    <row r="6" spans="1:34" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>3</v>
       </c>
@@ -4758,7 +4765,7 @@
       <c r="AG6" s="105"/>
       <c r="AH6" s="106"/>
     </row>
-    <row r="7" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>4</v>
       </c>
@@ -4844,7 +4851,7 @@
       <c r="AG7" s="105"/>
       <c r="AH7" s="106"/>
     </row>
-    <row r="8" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>5</v>
       </c>
@@ -4930,7 +4937,7 @@
       <c r="AG8" s="105"/>
       <c r="AH8" s="106"/>
     </row>
-    <row r="9" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>6</v>
       </c>
@@ -5020,7 +5027,7 @@
       <c r="AG9" s="105"/>
       <c r="AH9" s="106"/>
     </row>
-    <row r="10" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>7</v>
       </c>
@@ -5110,7 +5117,7 @@
       <c r="AG10" s="105"/>
       <c r="AH10" s="106"/>
     </row>
-    <row r="11" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>8</v>
       </c>
@@ -5202,7 +5209,7 @@
       <c r="AG11" s="105"/>
       <c r="AH11" s="106"/>
     </row>
-    <row r="12" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>9</v>
       </c>
@@ -5296,7 +5303,7 @@
       <c r="AG12" s="105"/>
       <c r="AH12" s="106"/>
     </row>
-    <row r="13" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>10</v>
       </c>
@@ -5384,7 +5391,7 @@
       <c r="AG13" s="105"/>
       <c r="AH13" s="106"/>
     </row>
-    <row r="14" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>11</v>
       </c>
@@ -5476,7 +5483,7 @@
       <c r="AG14" s="105"/>
       <c r="AH14" s="106"/>
     </row>
-    <row r="15" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <v>12</v>
       </c>
@@ -5563,16 +5570,16 @@
       </c>
       <c r="AE15" s="42"/>
       <c r="AF15" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG15" s="105" t="s">
         <v>120</v>
-      </c>
-      <c r="AG15" s="105" t="s">
-        <v>121</v>
       </c>
       <c r="AH15" s="106">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>13</v>
       </c>
@@ -5660,13 +5667,13 @@
       <c r="AE16" s="42"/>
       <c r="AF16" s="104"/>
       <c r="AG16" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH16" s="106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <v>14</v>
       </c>
@@ -5762,13 +5769,13 @@
         <v>72</v>
       </c>
       <c r="AG17" s="105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH17" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>15</v>
       </c>
@@ -5864,13 +5871,13 @@
         <v>72</v>
       </c>
       <c r="AG18" s="105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH18" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <v>16</v>
       </c>
@@ -5960,7 +5967,7 @@
       <c r="AG19" s="105"/>
       <c r="AH19" s="106"/>
     </row>
-    <row r="20" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <v>17</v>
       </c>
@@ -6053,10 +6060,10 @@
       </c>
       <c r="AG20" s="105"/>
       <c r="AH20" s="106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <v>18</v>
       </c>
@@ -6142,7 +6149,7 @@
       <c r="AG21" s="105"/>
       <c r="AH21" s="106"/>
     </row>
-    <row r="22" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <v>20</v>
       </c>
@@ -6228,11 +6235,11 @@
         <v>100</v>
       </c>
       <c r="AG22" s="112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH22" s="106"/>
     </row>
-    <row r="23" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <v>21</v>
       </c>
@@ -6319,7 +6326,7 @@
       <c r="AG23" s="112"/>
       <c r="AH23" s="106"/>
     </row>
-    <row r="24" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <v>22</v>
       </c>
@@ -6406,7 +6413,7 @@
       <c r="AG24" s="112"/>
       <c r="AH24" s="106"/>
     </row>
-    <row r="25" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <v>23</v>
       </c>
@@ -6491,11 +6498,11 @@
       <c r="AE25" s="15"/>
       <c r="AF25" s="113"/>
       <c r="AG25" s="114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH25" s="106"/>
     </row>
-    <row r="26" spans="1:34" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29">
         <v>24</v>
       </c>
@@ -6584,7 +6591,7 @@
       <c r="AG26" s="115"/>
       <c r="AH26" s="106"/>
     </row>
-    <row r="27" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>25</v>
       </c>
@@ -6675,7 +6682,7 @@
       </c>
       <c r="AH27" s="106"/>
     </row>
-    <row r="28" spans="1:34" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29">
         <v>26</v>
       </c>
@@ -6765,10 +6772,10 @@
       </c>
       <c r="AG28" s="118"/>
       <c r="AH28" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>27</v>
       </c>
@@ -6853,11 +6860,11 @@
       <c r="AE29" s="15"/>
       <c r="AF29" s="116"/>
       <c r="AG29" s="117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH29" s="106"/>
     </row>
-    <row r="30" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="92">
         <v>28</v>
       </c>
@@ -6943,10 +6950,10 @@
       <c r="AF30" s="116"/>
       <c r="AG30" s="119"/>
       <c r="AH30" s="106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:34" s="45" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" s="45" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="92">
         <v>29</v>
       </c>
@@ -7033,7 +7040,7 @@
       <c r="AG31" s="119"/>
       <c r="AH31" s="121"/>
     </row>
-    <row r="32" spans="1:34" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="92">
         <v>30</v>
       </c>
@@ -7120,7 +7127,7 @@
       <c r="AG32" s="118"/>
       <c r="AH32" s="106"/>
     </row>
-    <row r="33" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="92">
         <v>31</v>
       </c>
@@ -7205,13 +7212,13 @@
       <c r="AE33" s="28"/>
       <c r="AF33" s="120"/>
       <c r="AG33" s="112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH33" s="121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="92">
         <v>32</v>
       </c>
@@ -7296,13 +7303,13 @@
       <c r="AE34" s="28"/>
       <c r="AF34" s="120"/>
       <c r="AG34" s="112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH34" s="121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="92">
         <v>33</v>
       </c>
@@ -7389,7 +7396,7 @@
       <c r="AG35" s="105"/>
       <c r="AH35" s="121"/>
     </row>
-    <row r="36" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="92">
         <v>34</v>
       </c>
@@ -7476,7 +7483,7 @@
       <c r="AG36" s="105"/>
       <c r="AH36" s="121"/>
     </row>
-    <row r="37" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="92">
         <v>35</v>
       </c>
@@ -7563,7 +7570,7 @@
       <c r="AG37" s="105"/>
       <c r="AH37" s="121"/>
     </row>
-    <row r="38" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A38" s="93">
         <v>36</v>
       </c>
@@ -7643,7 +7650,7 @@
       <c r="AG38" s="105"/>
       <c r="AH38" s="121"/>
     </row>
-    <row r="39" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A39" s="93">
         <v>37</v>
       </c>
@@ -7723,7 +7730,7 @@
       <c r="AG39" s="105"/>
       <c r="AH39" s="121"/>
     </row>
-    <row r="40" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A40" s="93">
         <v>38</v>
       </c>
@@ -7803,7 +7810,7 @@
       <c r="AG40" s="105"/>
       <c r="AH40" s="121"/>
     </row>
-    <row r="41" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A41" s="93">
         <v>39</v>
       </c>
@@ -7883,7 +7890,7 @@
       <c r="AG41" s="105"/>
       <c r="AH41" s="121"/>
     </row>
-    <row r="42" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="93">
         <v>40</v>
       </c>
@@ -7963,7 +7970,7 @@
       <c r="AG42" s="105"/>
       <c r="AH42" s="121"/>
     </row>
-    <row r="43" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A43" s="93">
         <v>41</v>
       </c>
@@ -8043,7 +8050,7 @@
       <c r="AG43" s="105"/>
       <c r="AH43" s="106"/>
     </row>
-    <row r="44" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A44" s="93">
         <v>42</v>
       </c>
@@ -8123,7 +8130,7 @@
       <c r="AG44" s="105"/>
       <c r="AH44" s="106"/>
     </row>
-    <row r="45" spans="1:34" s="89" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" s="89" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="93">
         <v>43</v>
       </c>
@@ -8191,7 +8198,7 @@
       <c r="AG45" s="105"/>
       <c r="AH45" s="106"/>
     </row>
-    <row r="46" spans="1:34" s="89" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" s="89" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A46" s="93">
         <v>44</v>
       </c>
@@ -8259,7 +8266,7 @@
       <c r="AG46" s="105"/>
       <c r="AH46" s="106"/>
     </row>
-    <row r="47" spans="1:34" s="89" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" s="89" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A47" s="93">
         <v>45</v>
       </c>
@@ -8327,7 +8334,7 @@
       <c r="AG47" s="105"/>
       <c r="AH47" s="106"/>
     </row>
-    <row r="48" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A48" s="93">
         <v>46</v>
       </c>
@@ -8407,7 +8414,7 @@
       <c r="AG48" s="105"/>
       <c r="AH48" s="106"/>
     </row>
-    <row r="49" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="93">
         <v>47</v>
       </c>
@@ -8487,7 +8494,7 @@
       <c r="AG49" s="105"/>
       <c r="AH49" s="106"/>
     </row>
-    <row r="50" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A50" s="93">
         <v>48</v>
       </c>
@@ -8567,7 +8574,7 @@
       <c r="AG50" s="105"/>
       <c r="AH50" s="106"/>
     </row>
-    <row r="51" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A51" s="93">
         <v>49</v>
       </c>
@@ -8647,7 +8654,7 @@
       <c r="AG51" s="105"/>
       <c r="AH51" s="106"/>
     </row>
-    <row r="52" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A52" s="93">
         <v>50</v>
       </c>
@@ -8727,7 +8734,7 @@
       <c r="AG52" s="105"/>
       <c r="AH52" s="106"/>
     </row>
-    <row r="53" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A53" s="93">
         <v>51</v>
       </c>
@@ -8807,7 +8814,7 @@
       <c r="AG53" s="105"/>
       <c r="AH53" s="106"/>
     </row>
-    <row r="54" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A54" s="93">
         <v>52</v>
       </c>
@@ -8887,7 +8894,7 @@
       <c r="AG54" s="105"/>
       <c r="AH54" s="106"/>
     </row>
-    <row r="55" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A55" s="93">
         <v>53</v>
       </c>
@@ -8967,7 +8974,7 @@
       <c r="AG55" s="105"/>
       <c r="AH55" s="106"/>
     </row>
-    <row r="56" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A56" s="93">
         <v>54</v>
       </c>
@@ -9047,7 +9054,7 @@
       <c r="AG56" s="105"/>
       <c r="AH56" s="106"/>
     </row>
-    <row r="57" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A57" s="93">
         <v>55</v>
       </c>
@@ -9127,7 +9134,7 @@
       <c r="AG57" s="105"/>
       <c r="AH57" s="106"/>
     </row>
-    <row r="58" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A58" s="93">
         <v>56</v>
       </c>
@@ -9207,7 +9214,7 @@
       <c r="AG58" s="105"/>
       <c r="AH58" s="106"/>
     </row>
-    <row r="59" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A59" s="93">
         <v>57</v>
       </c>
@@ -9287,7 +9294,7 @@
       <c r="AG59" s="105"/>
       <c r="AH59" s="106"/>
     </row>
-    <row r="60" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A60" s="94">
         <v>58</v>
       </c>
@@ -9367,7 +9374,7 @@
       <c r="AG60" s="124"/>
       <c r="AH60" s="125"/>
     </row>
-    <row r="61" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
         <v>60</v>
       </c>
@@ -9447,7 +9454,7 @@
       <c r="AG61" s="95"/>
       <c r="AH61" s="95"/>
     </row>
-    <row r="62" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
         <v>61</v>
       </c>
@@ -9527,7 +9534,7 @@
       <c r="AG62" s="95"/>
       <c r="AH62" s="95"/>
     </row>
-    <row r="63" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
         <v>62</v>
       </c>
@@ -9607,7 +9614,7 @@
       <c r="AG63" s="95"/>
       <c r="AH63" s="95"/>
     </row>
-    <row r="64" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>63</v>
       </c>
@@ -9687,7 +9694,7 @@
       <c r="AG64" s="95"/>
       <c r="AH64" s="95"/>
     </row>
-    <row r="65" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>64</v>
       </c>
@@ -9767,7 +9774,7 @@
       <c r="AG65" s="95"/>
       <c r="AH65" s="95"/>
     </row>
-    <row r="66" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
         <v>65</v>
       </c>
@@ -9790,7 +9797,7 @@
         <v>6</v>
       </c>
       <c r="H66" s="97" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="I66" s="14">
         <v>1</v>
@@ -9847,7 +9854,7 @@
       <c r="AG66" s="95"/>
       <c r="AH66" s="95"/>
     </row>
-    <row r="67" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="29">
         <v>66</v>
       </c>
@@ -9870,7 +9877,7 @@
         <v>6</v>
       </c>
       <c r="H67" s="97" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="I67" s="14">
         <v>1.5</v>
@@ -9927,8 +9934,10 @@
       <c r="AG67" s="95"/>
       <c r="AH67" s="95"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A68" s="29"/>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A68" s="29">
+        <v>67</v>
+      </c>
       <c r="B68" s="84"/>
       <c r="C68" s="83"/>
       <c r="D68" s="57"/>
@@ -9983,8 +9992,10 @@
       <c r="AG68" s="95"/>
       <c r="AH68" s="95"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A69" s="29">
+        <v>68</v>
+      </c>
       <c r="B69" s="84"/>
       <c r="C69" s="83"/>
       <c r="D69" s="57"/>
@@ -10039,8 +10050,10 @@
       <c r="AG69" s="95"/>
       <c r="AH69" s="95"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A70" s="29"/>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A70" s="29">
+        <v>69</v>
+      </c>
       <c r="B70" s="84"/>
       <c r="C70" s="83"/>
       <c r="D70" s="57"/>
@@ -10095,22 +10108,46 @@
       <c r="AG70" s="95"/>
       <c r="AH70" s="95"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
-      <c r="B71" s="84"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="14"/>
+    <row r="71" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="29">
+        <v>70</v>
+      </c>
+      <c r="B71" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="C71" s="83">
+        <v>2.5</v>
+      </c>
+      <c r="D71" s="57">
+        <v>42569</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F71" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="15"/>
+      <c r="G71" s="14">
+        <v>5</v>
+      </c>
+      <c r="H71" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="I71" s="14">
+        <v>1</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K71" s="14">
+        <v>20</v>
+      </c>
+      <c r="L71" s="14">
+        <v>6.28</v>
+      </c>
+      <c r="M71" s="15">
+        <v>0.05</v>
+      </c>
       <c r="N71" s="15"/>
       <c r="O71" s="49"/>
       <c r="P71" s="14"/>
@@ -10151,22 +10188,46 @@
       <c r="AG71" s="95"/>
       <c r="AH71" s="95"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="14"/>
+    <row r="72" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="29">
+        <v>71</v>
+      </c>
+      <c r="B72" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="C72" s="83">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="D72" s="57">
+        <v>42569</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F72" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="14"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="15"/>
+      <c r="G72" s="14">
+        <v>5</v>
+      </c>
+      <c r="H72" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="I72" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K72" s="14">
+        <v>20</v>
+      </c>
+      <c r="L72" s="14">
+        <v>6.32</v>
+      </c>
+      <c r="M72" s="15">
+        <v>0.05</v>
+      </c>
       <c r="N72" s="15"/>
       <c r="O72" s="49"/>
       <c r="P72" s="14"/>
@@ -10207,22 +10268,46 @@
       <c r="AG72" s="95"/>
       <c r="AH72" s="95"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A73" s="29"/>
-      <c r="B73" s="84"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="14"/>
+    <row r="73" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="29">
+        <v>72</v>
+      </c>
+      <c r="B73" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="C73" s="83">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="D73" s="57">
+        <v>42569</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F73" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="14"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="15"/>
+      <c r="G73" s="14">
+        <v>5</v>
+      </c>
+      <c r="H73" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="I73" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K73" s="14">
+        <v>20</v>
+      </c>
+      <c r="L73" s="14">
+        <v>6.45</v>
+      </c>
+      <c r="M73" s="15">
+        <v>0.05</v>
+      </c>
       <c r="N73" s="15"/>
       <c r="O73" s="49"/>
       <c r="P73" s="14"/>
@@ -10263,22 +10348,46 @@
       <c r="AG73" s="95"/>
       <c r="AH73" s="95"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A74" s="29"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="14"/>
+    <row r="74" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="29">
+        <v>73</v>
+      </c>
+      <c r="B74" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="C74" s="83">
+        <v>2.5030000000000001</v>
+      </c>
+      <c r="D74" s="57">
+        <v>42569</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F74" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G74" s="14"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="15"/>
+      <c r="G74" s="14">
+        <v>5</v>
+      </c>
+      <c r="H74" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="I74" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K74" s="14">
+        <v>20</v>
+      </c>
+      <c r="L74" s="14">
+        <v>6.32</v>
+      </c>
+      <c r="M74" s="15">
+        <v>0.05</v>
+      </c>
       <c r="N74" s="15"/>
       <c r="O74" s="49"/>
       <c r="P74" s="14"/>
@@ -10319,22 +10428,46 @@
       <c r="AG74" s="95"/>
       <c r="AH74" s="95"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A75" s="29"/>
-      <c r="B75" s="84"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="14"/>
+    <row r="75" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="29">
+        <v>74</v>
+      </c>
+      <c r="B75" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="C75" s="83">
+        <v>2.504</v>
+      </c>
+      <c r="D75" s="57">
+        <v>42569</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F75" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="15"/>
+      <c r="G75" s="14">
+        <v>5</v>
+      </c>
+      <c r="H75" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="I75" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K75" s="14">
+        <v>20</v>
+      </c>
+      <c r="L75" s="14">
+        <v>6.27</v>
+      </c>
+      <c r="M75" s="15">
+        <v>0.05</v>
+      </c>
       <c r="N75" s="15"/>
       <c r="O75" s="49"/>
       <c r="P75" s="14"/>
@@ -10375,22 +10508,46 @@
       <c r="AG75" s="95"/>
       <c r="AH75" s="95"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A76" s="29"/>
-      <c r="B76" s="84"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="14"/>
+    <row r="76" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="29">
+        <v>75</v>
+      </c>
+      <c r="B76" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="C76" s="83">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="D76" s="57">
+        <v>42569</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F76" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="15"/>
+      <c r="G76" s="14">
+        <v>5</v>
+      </c>
+      <c r="H76" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="I76" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K76" s="14">
+        <v>20</v>
+      </c>
+      <c r="L76" s="14">
+        <v>6.35</v>
+      </c>
+      <c r="M76" s="15">
+        <v>0.05</v>
+      </c>
       <c r="N76" s="15"/>
       <c r="O76" s="49"/>
       <c r="P76" s="14"/>
@@ -10431,22 +10588,46 @@
       <c r="AG76" s="95"/>
       <c r="AH76" s="95"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A77" s="29"/>
-      <c r="B77" s="84"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="14"/>
+    <row r="77" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="29">
+        <v>76</v>
+      </c>
+      <c r="B77" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="C77" s="83">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="D77" s="57">
+        <v>42569</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F77" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="14"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="15"/>
+      <c r="G77" s="14">
+        <v>5</v>
+      </c>
+      <c r="H77" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="I77" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K77" s="14">
+        <v>20</v>
+      </c>
+      <c r="L77" s="14">
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="M77" s="15">
+        <v>0.05</v>
+      </c>
       <c r="N77" s="15"/>
       <c r="O77" s="49"/>
       <c r="P77" s="14"/>
@@ -10487,22 +10668,46 @@
       <c r="AG77" s="95"/>
       <c r="AH77" s="95"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A78" s="29"/>
-      <c r="B78" s="84"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="14"/>
+    <row r="78" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="29">
+        <v>77</v>
+      </c>
+      <c r="B78" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="C78" s="83">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="D78" s="57">
+        <v>42569</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F78" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="15"/>
+      <c r="G78" s="14">
+        <v>5</v>
+      </c>
+      <c r="H78" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="I78" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K78" s="14">
+        <v>20</v>
+      </c>
+      <c r="L78" s="14">
+        <v>6.24</v>
+      </c>
+      <c r="M78" s="15">
+        <v>0.05</v>
+      </c>
       <c r="N78" s="15"/>
       <c r="O78" s="49"/>
       <c r="P78" s="14"/>
@@ -10543,22 +10748,46 @@
       <c r="AG78" s="95"/>
       <c r="AH78" s="95"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A79" s="29"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="14"/>
+    <row r="79" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="29">
+        <v>78</v>
+      </c>
+      <c r="B79" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="C79" s="83">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="D79" s="57">
+        <v>42569</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F79" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="15"/>
+      <c r="G79" s="14">
+        <v>5</v>
+      </c>
+      <c r="H79" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="I79" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K79" s="14">
+        <v>2</v>
+      </c>
+      <c r="L79" s="14">
+        <v>6.33</v>
+      </c>
+      <c r="M79" s="15">
+        <v>0.5</v>
+      </c>
       <c r="N79" s="15"/>
       <c r="O79" s="49"/>
       <c r="P79" s="14"/>
@@ -10599,22 +10828,46 @@
       <c r="AG79" s="95"/>
       <c r="AH79" s="95"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A80" s="29"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="14"/>
+    <row r="80" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="29">
+        <v>79</v>
+      </c>
+      <c r="B80" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="C80" s="83">
+        <v>2.585</v>
+      </c>
+      <c r="D80" s="57">
+        <v>42569</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F80" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="15"/>
+      <c r="G80" s="14">
+        <v>5</v>
+      </c>
+      <c r="H80" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="I80" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K80" s="14">
+        <v>200</v>
+      </c>
+      <c r="L80" s="14">
+        <v>6.26</v>
+      </c>
+      <c r="M80" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="N80" s="15"/>
       <c r="O80" s="49"/>
       <c r="P80" s="14"/>
@@ -10655,8 +10908,10 @@
       <c r="AG80" s="95"/>
       <c r="AH80" s="95"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A81" s="29"/>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A81" s="29">
+        <v>80</v>
+      </c>
       <c r="B81" s="84"/>
       <c r="C81" s="83"/>
       <c r="D81" s="57"/>
@@ -10711,8 +10966,10 @@
       <c r="AG81" s="95"/>
       <c r="AH81" s="95"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A82" s="29"/>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A82" s="29">
+        <v>81</v>
+      </c>
       <c r="B82" s="84"/>
       <c r="C82" s="83"/>
       <c r="D82" s="57"/>
@@ -10767,8 +11024,10 @@
       <c r="AG82" s="95"/>
       <c r="AH82" s="95"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A83" s="29"/>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A83" s="29">
+        <v>82</v>
+      </c>
       <c r="B83" s="84"/>
       <c r="C83" s="83"/>
       <c r="D83" s="57"/>
@@ -10823,8 +11082,10 @@
       <c r="AG83" s="95"/>
       <c r="AH83" s="95"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A84" s="29"/>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A84" s="29">
+        <v>83</v>
+      </c>
       <c r="B84" s="84"/>
       <c r="C84" s="83"/>
       <c r="D84" s="57"/>
@@ -10879,7 +11140,7 @@
       <c r="AG84" s="95"/>
       <c r="AH84" s="95"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
       <c r="B85" s="84"/>
       <c r="C85" s="83"/>
@@ -10935,7 +11196,7 @@
       <c r="AG85" s="95"/>
       <c r="AH85" s="95"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
       <c r="B86" s="84"/>
       <c r="C86" s="83"/>
@@ -10991,7 +11252,7 @@
       <c r="AG86" s="95"/>
       <c r="AH86" s="95"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
       <c r="B87" s="84"/>
       <c r="C87" s="83"/>
@@ -11047,7 +11308,7 @@
       <c r="AG87" s="95"/>
       <c r="AH87" s="95"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
       <c r="B88" s="84"/>
       <c r="C88" s="83"/>
@@ -11103,7 +11364,7 @@
       <c r="AG88" s="95"/>
       <c r="AH88" s="95"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
       <c r="B89" s="84"/>
       <c r="C89" s="83"/>
@@ -11159,7 +11420,7 @@
       <c r="AG89" s="95"/>
       <c r="AH89" s="95"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" s="84"/>
       <c r="C90" s="83"/>
@@ -11215,7 +11476,7 @@
       <c r="AG90" s="95"/>
       <c r="AH90" s="95"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
       <c r="B91" s="84"/>
       <c r="C91" s="83"/>
@@ -11271,7 +11532,7 @@
       <c r="AG91" s="95"/>
       <c r="AH91" s="95"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
       <c r="B92" s="84"/>
       <c r="C92" s="83"/>
@@ -11327,7 +11588,7 @@
       <c r="AG92" s="95"/>
       <c r="AH92" s="95"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
       <c r="B93" s="84"/>
       <c r="C93" s="83"/>
@@ -11426,19 +11687,19 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="12"/>
-    <col min="3" max="3" width="16.83203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="12"/>
+    <col min="3" max="3" width="16.796875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="12"/>
+    <col min="7" max="7" width="13.69921875" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="10.796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
@@ -11480,7 +11741,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -11503,7 +11764,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -11528,7 +11789,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="78" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>55</v>
@@ -11551,7 +11812,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -11576,7 +11837,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
@@ -11601,7 +11862,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -11616,7 +11877,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -11631,7 +11892,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -11646,7 +11907,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -11661,7 +11922,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -11676,7 +11937,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -11691,7 +11952,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -11706,7 +11967,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -11721,7 +11982,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="3"/>
@@ -11750,7 +12011,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
